--- a/Математическое моделирование/labs/lab5.xlsx
+++ b/Математическое моделирование/labs/lab5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\1-term-of-SPBSTU\Математическое моделирование\labs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamet\Documents\GitHub\1-term-of-SPBSTU\Математическое моделирование\labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Число2</t>
   </si>
@@ -100,6 +100,42 @@
   <si>
     <t>и уравнение регрессии</t>
   </si>
+  <si>
+    <t>[0-1)</t>
+  </si>
+  <si>
+    <t>[1-2)</t>
+  </si>
+  <si>
+    <t>[2-3)</t>
+  </si>
+  <si>
+    <t>[3-4)</t>
+  </si>
+  <si>
+    <t>[4-5)</t>
+  </si>
+  <si>
+    <t>[5-6)</t>
+  </si>
+  <si>
+    <t>[6-7)</t>
+  </si>
+  <si>
+    <t>[7-8)</t>
+  </si>
+  <si>
+    <t>[8-9)</t>
+  </si>
+  <si>
+    <t>[9-10)</t>
+  </si>
+  <si>
+    <t>[10-11)</t>
+  </si>
+  <si>
+    <t>Работа в MS Project</t>
+  </si>
 </sst>
 </file>
 
@@ -130,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +188,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -183,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -203,6 +245,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1596,7 +1640,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.4925144251341801E-2"/>
+          <c:y val="8.6002165063610539E-2"/>
+          <c:w val="0.96816225782655441"/>
+          <c:h val="0.86387709237183985"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -2481,6 +2535,629 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Число</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> попаданий в интервал первого параметра</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$AP$12:$AV$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>[0-1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[1-2)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[2-3)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[3-4)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[4-5)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[5-6)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[6-7)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$AP$13:$AV$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A40-4E23-B232-D84C1BB0F6B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="454111320"/>
+        <c:axId val="454111648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="454111320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454111648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="454111648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454111320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Число</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> попаданий в интервал второго параметра</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$AP$15:$AZ$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>[0-1)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[1-2)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[2-3)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[3-4)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>[4-5)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>[5-6)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>[6-7)</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>[7-8)</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>[8-9)</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>[9-10)</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>[10-11)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$AP$16:$AZ$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-58F8-4B5B-942F-9F84BCD58800}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="454111320"/>
+        <c:axId val="454111648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="454111320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454111648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="454111648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454111320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2522,6 +3199,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3567,20 +4284,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>72737</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>31172</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>494335</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>78018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>135081</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>156147</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>181927</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3601,16 +4821,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>78613</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>4512</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>203532</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>20127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>4640</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>7977</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>207632</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>23592</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3697,6 +4917,104 @@
         <a:xfrm>
           <a:off x="20227017" y="4459741"/>
           <a:ext cx="888672" cy="771633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>417419</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>8123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>58831</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>5882</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>417419</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>8123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>58831</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>5882</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>31230</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>249290</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>177463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14927705" y="5808689"/>
+          <a:ext cx="17347446" cy="2800741"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3971,10 +5289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AK277"/>
+  <dimension ref="A3:BA277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AB28" sqref="AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3984,7 +5302,7 @@
     <col min="38" max="38" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -4028,7 +5346,7 @@
       </c>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -4091,7 +5409,7 @@
       </c>
       <c r="X4" s="6"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4152,7 +5470,7 @@
         <v>5.9594437662760411</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2.76</v>
       </c>
@@ -4210,7 +5528,7 @@
         <v>5.1010418475115737E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3.57</v>
       </c>
@@ -4268,7 +5586,7 @@
         <v>5.0092536530671281E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>2.46</v>
       </c>
@@ -4335,7 +5653,7 @@
       <c r="AJ8" s="6"/>
       <c r="AK8" s="6"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>4.51</v>
       </c>
@@ -4399,7 +5717,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>5.93</v>
       </c>
@@ -4457,7 +5775,7 @@
         <v>4.7388890697337956E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>3.63</v>
       </c>
@@ -4522,7 +5840,7 @@
         <v>3.6906666666666679</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>2.5499999999999998</v>
       </c>
@@ -4586,8 +5904,32 @@
         <f>SUM(C5:C244)* (1/T3)</f>
         <v>3.9864583333333314</v>
       </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AO12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -4654,8 +5996,40 @@
         <f>((1/J3)*SUM(D5:D244))-AJ11^2</f>
         <v>0.88268872222221439</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AP13">
+        <f>COUNTIF($B$5:$B$244,"&lt;1")</f>
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <f>COUNTIF($B$5:$B$244,"&lt;2")-AP13</f>
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <f>COUNTIF($B$5:$B$244,"&lt;3")-AQ13-AP13</f>
+        <v>88</v>
+      </c>
+      <c r="AS13">
+        <f>COUNTIF($B$5:$B$244,"&lt;4")-AR13-AQ13-AP13</f>
+        <v>62</v>
+      </c>
+      <c r="AT13">
+        <f>COUNTIF($B$5:$B$244,"&lt;5")-AS13-AR13-AQ13-AP13</f>
+        <v>66</v>
+      </c>
+      <c r="AU13">
+        <f>COUNTIF($B$5:$B$244,"&lt;6")-AT13-AS13-AR13-AQ13-AP13</f>
+        <v>24</v>
+      </c>
+      <c r="AV13">
+        <f>COUNTIF($B$5:$B$244,"&lt;7")-AU13-AT13-AS13-AR13-AQ13-AP13</f>
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <f>SUM(AP13:AV13)</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>2.67</v>
       </c>
@@ -4720,7 +6094,7 @@
         <v>12.437141206597222</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>3.35</v>
       </c>
@@ -4784,8 +6158,44 @@
         <f>((1/T3)*SUM(F5:F244)) - (AJ11*AJ12)</f>
         <v>-2.7286722222222117</v>
       </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AO15" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AQ15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>31</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>34</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>2.9</v>
       </c>
@@ -4849,6 +6259,54 @@
         <f>AJ15/(SQRT(AJ13)*SQRT(AJ14))</f>
         <v>-0.82354493083294933</v>
       </c>
+      <c r="AP16">
+        <f>COUNTIF($C$5:$C$244,"&lt;1")</f>
+        <v>90</v>
+      </c>
+      <c r="AQ16">
+        <f>COUNTIF($C$5:$C$244,"&lt;2")-AP16</f>
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <f>COUNTIF($C$5:$C$244,"&lt;3")-AQ16-AP16</f>
+        <v>16</v>
+      </c>
+      <c r="AS16">
+        <f>COUNTIF($C$5:$C$244,"&lt;4")-AR16-AQ16-AP16</f>
+        <v>14</v>
+      </c>
+      <c r="AT16">
+        <f>COUNTIF($C$5:$C$244,"&lt;5")-AS16-AR16-AQ16-AP16</f>
+        <v>20</v>
+      </c>
+      <c r="AU16">
+        <f>COUNTIF($C$5:$C$244,"&lt;6")-AT16-AS16-AR16-AQ16-AP16</f>
+        <v>10</v>
+      </c>
+      <c r="AV16">
+        <f>COUNTIF($C$5:$C$244,"&lt;7")-AU16-AT16-AS16-AR16-AQ16-AP16</f>
+        <v>17</v>
+      </c>
+      <c r="AW16">
+        <f>COUNTIF($C$5:$C$244,"&lt;8")-AV16-AU16-AT16-AS16-AR16-AQ16-AP16</f>
+        <v>30</v>
+      </c>
+      <c r="AX16">
+        <f>COUNTIF($C$5:$C$244,"&lt;9")-AW16-AV16-AU16-AT16-AS16-AR16-AQ16-AP16</f>
+        <v>29</v>
+      </c>
+      <c r="AY16">
+        <f>COUNTIF($C$5:$C$244,"&lt;10")-AX16-AW16-AV16-AU16-AT16-AS16-AR16-AQ16-AP16</f>
+        <v>14</v>
+      </c>
+      <c r="AZ16">
+        <f>COUNTIF($C$5:$C$244,"&lt;11")-AY16-AX16-AW16-AV16-AU16-AT16-AS16-AR16-AQ16-AP16</f>
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <f>SUM(AP16:AZ16)</f>
+        <v>240</v>
+      </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
@@ -5688,6 +7146,11 @@
         <f t="shared" si="9"/>
         <v>2.964843930844909E-3</v>
       </c>
+      <c r="X30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
